--- a/Data Structures/linked_list/MPMC_ALT.xlsx
+++ b/Data Structures/linked_list/MPMC_ALT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="87">
   <si>
     <t>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</t>
   </si>
@@ -136,21 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Lockless MPMC Buffer Key Range 128 (2^7)</t>
-  </si>
-  <si>
-    <t>Stoker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cube </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoker </t>
-  </si>
-  <si>
-    <t>Local</t>
   </si>
   <si>
     <t>cycles</t>
@@ -275,6 +260,27 @@
   <si>
     <t>LOCKED PERF DATA BELOW</t>
   </si>
+  <si>
+    <t>Local 128</t>
+  </si>
+  <si>
+    <t>Stoker 131072</t>
+  </si>
+  <si>
+    <t>Local 131072</t>
+  </si>
+  <si>
+    <t>Cube 131072</t>
+  </si>
+  <si>
+    <t>Stoker 134217728</t>
+  </si>
+  <si>
+    <t>Local 134217728</t>
+  </si>
+  <si>
+    <t>Cube 134217728</t>
+  </si>
 </sst>
 </file>
 
@@ -1362,11 +1368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97112832"/>
-        <c:axId val="97114752"/>
+        <c:axId val="109970176"/>
+        <c:axId val="109972096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97112832"/>
+        <c:axId val="109970176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97114752"/>
+        <c:crossAx val="109972096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97114752"/>
+        <c:axId val="109972096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97112832"/>
+        <c:crossAx val="109970176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,11 +1669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99506816"/>
-        <c:axId val="99508992"/>
+        <c:axId val="111344640"/>
+        <c:axId val="111379584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99506816"/>
+        <c:axId val="111344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99508992"/>
+        <c:crossAx val="111379584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1703,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99508992"/>
+        <c:axId val="111379584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99506816"/>
+        <c:crossAx val="111344640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100600448"/>
-        <c:axId val="100602624"/>
+        <c:axId val="111434752"/>
+        <c:axId val="111465600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100600448"/>
+        <c:axId val="111434752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100602624"/>
+        <c:crossAx val="111465600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2001,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100602624"/>
+        <c:axId val="111465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100600448"/>
+        <c:crossAx val="111434752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2549,11 +2555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100654464"/>
-        <c:axId val="107480576"/>
+        <c:axId val="111628288"/>
+        <c:axId val="111630208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100654464"/>
+        <c:axId val="111628288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107480576"/>
+        <c:crossAx val="111630208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2590,7 +2596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107480576"/>
+        <c:axId val="111630208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100654464"/>
+        <c:crossAx val="111628288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,11 +2975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107530112"/>
-        <c:axId val="107540480"/>
+        <c:axId val="111905024"/>
+        <c:axId val="111923584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107530112"/>
+        <c:axId val="111905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107540480"/>
+        <c:crossAx val="111923584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3010,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107540480"/>
+        <c:axId val="111923584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107530112"/>
+        <c:crossAx val="111905024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3388,11 +3394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107835776"/>
-        <c:axId val="107837696"/>
+        <c:axId val="117605120"/>
+        <c:axId val="117607040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107835776"/>
+        <c:axId val="117605120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107837696"/>
+        <c:crossAx val="117607040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107837696"/>
+        <c:axId val="117607040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107835776"/>
+        <c:crossAx val="117605120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,6 +3519,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3825,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108014208"/>
-        <c:axId val="108016384"/>
+        <c:axId val="118836224"/>
+        <c:axId val="118850688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108014208"/>
+        <c:axId val="118836224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,13 +3858,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108016384"/>
+        <c:crossAx val="118850688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3865,7 +3873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108016384"/>
+        <c:axId val="118850688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,19 +3896,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108014208"/>
+        <c:crossAx val="118836224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3963,7 +3973,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4045,7 +4055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4127,7 +4137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4210,11 +4220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108051072"/>
-        <c:axId val="108057344"/>
+        <c:axId val="118901760"/>
+        <c:axId val="118924416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108051072"/>
+        <c:axId val="118901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108057344"/>
+        <c:crossAx val="118924416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4251,7 +4261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108057344"/>
+        <c:axId val="118924416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108051072"/>
+        <c:crossAx val="118901760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4351,7 +4361,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker </c:v>
+                  <c:v>Stoker 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4433,7 +4443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4515,7 +4525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4598,11 +4608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108096128"/>
-        <c:axId val="108106496"/>
+        <c:axId val="119118848"/>
+        <c:axId val="119137408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108096128"/>
+        <c:axId val="119118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,7 +4641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108106496"/>
+        <c:crossAx val="119137408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4639,7 +4649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108106496"/>
+        <c:axId val="119137408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108096128"/>
+        <c:crossAx val="119118848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4739,7 +4749,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4821,7 +4831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local</c:v>
+                  <c:v>Local 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4903,7 +4913,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4986,11 +4996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108128896"/>
-        <c:axId val="108139264"/>
+        <c:axId val="119155712"/>
+        <c:axId val="119219328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108128896"/>
+        <c:axId val="119155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,7 +5029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108139264"/>
+        <c:crossAx val="119219328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5027,7 +5037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108139264"/>
+        <c:axId val="119219328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,7 +5067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108128896"/>
+        <c:crossAx val="119155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5127,7 +5137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5209,7 +5219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5291,7 +5301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5373,7 +5383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker </c:v>
+                  <c:v>Stoker 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5455,7 +5465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5537,7 +5547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5619,7 +5629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5701,7 +5711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local</c:v>
+                  <c:v>Local 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5783,7 +5793,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5866,11 +5876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108199296"/>
-        <c:axId val="107623936"/>
+        <c:axId val="119300096"/>
+        <c:axId val="119302016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108199296"/>
+        <c:axId val="119300096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5899,7 +5909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107623936"/>
+        <c:crossAx val="119302016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5907,7 +5917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107623936"/>
+        <c:axId val="119302016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5937,7 +5947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108199296"/>
+        <c:crossAx val="119300096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5989,6 +5999,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6991,11 +7002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98701312"/>
-        <c:axId val="98703232"/>
+        <c:axId val="110153728"/>
+        <c:axId val="110155648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98701312"/>
+        <c:axId val="110153728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7017,13 +7028,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98703232"/>
+        <c:crossAx val="110155648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7031,7 +7043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98703232"/>
+        <c:axId val="110155648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,19 +7066,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98701312"/>
+        <c:crossAx val="110153728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7771,7 +7785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7853,7 +7867,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker </c:v>
+                  <c:v>Stoker 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7935,7 +7949,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker</c:v>
+                  <c:v>Stoker 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8018,11 +8032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107686528"/>
-        <c:axId val="107696896"/>
+        <c:axId val="119950336"/>
+        <c:axId val="119956608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107686528"/>
+        <c:axId val="119950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8051,7 +8065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107696896"/>
+        <c:crossAx val="119956608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8059,7 +8073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107696896"/>
+        <c:axId val="119956608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8089,7 +8103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107686528"/>
+        <c:crossAx val="119950336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8809,7 +8823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8891,7 +8905,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local </c:v>
+                  <c:v>Local 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8973,7 +8987,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local</c:v>
+                  <c:v>Local 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9056,11 +9070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107771008"/>
-        <c:axId val="107772928"/>
+        <c:axId val="95430144"/>
+        <c:axId val="95432064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107771008"/>
+        <c:axId val="95430144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9089,7 +9103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107772928"/>
+        <c:crossAx val="95432064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9097,7 +9111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107772928"/>
+        <c:axId val="95432064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107771008"/>
+        <c:crossAx val="95430144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9860,7 +9874,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9942,7 +9956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 131072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10024,7 +10038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube </c:v>
+                  <c:v>Cube 134217728</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10107,11 +10121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108547456"/>
-        <c:axId val="108566016"/>
+        <c:axId val="95494144"/>
+        <c:axId val="95496064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108547456"/>
+        <c:axId val="95494144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10133,13 +10147,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108566016"/>
+        <c:crossAx val="95496064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10147,7 +10162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108566016"/>
+        <c:axId val="95496064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10170,13 +10185,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108547456"/>
+        <c:crossAx val="95494144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10506,11 +10522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108268928"/>
-        <c:axId val="108275200"/>
+        <c:axId val="106143744"/>
+        <c:axId val="106145664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108268928"/>
+        <c:axId val="106143744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10538,7 +10554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108275200"/>
+        <c:crossAx val="106145664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10546,7 +10562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108275200"/>
+        <c:axId val="106145664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,7 +10591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108268928"/>
+        <c:crossAx val="106143744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10895,11 +10911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108301312"/>
-        <c:axId val="108303488"/>
+        <c:axId val="108727680"/>
+        <c:axId val="95716864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108301312"/>
+        <c:axId val="108727680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10927,7 +10943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108303488"/>
+        <c:crossAx val="95716864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10935,7 +10951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108303488"/>
+        <c:axId val="95716864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10964,7 +10980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108301312"/>
+        <c:crossAx val="108727680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11284,11 +11300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108870656"/>
-        <c:axId val="108876928"/>
+        <c:axId val="95743360"/>
+        <c:axId val="95749632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108870656"/>
+        <c:axId val="95743360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11316,7 +11332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108876928"/>
+        <c:crossAx val="95749632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11324,7 +11340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108876928"/>
+        <c:axId val="95749632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11353,7 +11369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108870656"/>
+        <c:crossAx val="95743360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11673,11 +11689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108915712"/>
-        <c:axId val="108463232"/>
+        <c:axId val="95776128"/>
+        <c:axId val="95794688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108915712"/>
+        <c:axId val="95776128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11705,7 +11721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108463232"/>
+        <c:crossAx val="95794688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11713,7 +11729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108463232"/>
+        <c:axId val="95794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11742,7 +11758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108915712"/>
+        <c:crossAx val="95776128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12783,11 +12799,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98753536"/>
-        <c:axId val="99026048"/>
+        <c:axId val="110300160"/>
+        <c:axId val="110314624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98753536"/>
+        <c:axId val="110300160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12816,7 +12832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99026048"/>
+        <c:crossAx val="110314624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12824,7 +12840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99026048"/>
+        <c:axId val="110314624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12854,7 +12870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98753536"/>
+        <c:crossAx val="110300160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13089,11 +13105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99060736"/>
-        <c:axId val="99062912"/>
+        <c:axId val="110451712"/>
+        <c:axId val="110474368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99060736"/>
+        <c:axId val="110451712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13122,7 +13138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99062912"/>
+        <c:crossAx val="110474368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13130,7 +13146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99062912"/>
+        <c:axId val="110474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13160,7 +13176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99060736"/>
+        <c:crossAx val="110451712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13391,11 +13407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99105792"/>
-        <c:axId val="99107968"/>
+        <c:axId val="110525440"/>
+        <c:axId val="110556288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99105792"/>
+        <c:axId val="110525440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13424,7 +13440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99107968"/>
+        <c:crossAx val="110556288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13432,7 +13448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99107968"/>
+        <c:axId val="110556288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13462,7 +13478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99105792"/>
+        <c:crossAx val="110525440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13527,6 +13543,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13692,11 +13709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99153024"/>
-        <c:axId val="99154944"/>
+        <c:axId val="110713856"/>
+        <c:axId val="110785664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99153024"/>
+        <c:axId val="110713856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13718,13 +13735,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99154944"/>
+        <c:crossAx val="110785664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13732,7 +13750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99154944"/>
+        <c:axId val="110785664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13755,19 +13773,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99153024"/>
+        <c:crossAx val="110713856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13990,11 +14010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99189888"/>
-        <c:axId val="99191808"/>
+        <c:axId val="110816256"/>
+        <c:axId val="110900352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99189888"/>
+        <c:axId val="110816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14022,7 +14042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99191808"/>
+        <c:crossAx val="110900352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14030,7 +14050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99191808"/>
+        <c:axId val="110900352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14059,7 +14079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99189888"/>
+        <c:crossAx val="110816256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14288,11 +14308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99208576"/>
-        <c:axId val="99419648"/>
+        <c:axId val="110980096"/>
+        <c:axId val="111178880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99208576"/>
+        <c:axId val="110980096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14320,7 +14340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99419648"/>
+        <c:crossAx val="111178880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14328,7 +14348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99419648"/>
+        <c:axId val="111178880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14357,7 +14377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99208576"/>
+        <c:crossAx val="110980096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14544,11 +14564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99469952"/>
-        <c:axId val="99472128"/>
+        <c:axId val="111213568"/>
+        <c:axId val="111293568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99469952"/>
+        <c:axId val="111213568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14576,7 +14596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99472128"/>
+        <c:crossAx val="111293568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14584,7 +14604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99472128"/>
+        <c:axId val="111293568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14613,7 +14633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99469952"/>
+        <c:crossAx val="111213568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15754,8 +15774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232:G243"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15882,7 +15902,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -17004,7 +17024,7 @@
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B51" s="7">
         <v>2903255</v>
@@ -17033,7 +17053,7 @@
     </row>
     <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B52" s="7">
         <v>5705844</v>
@@ -17062,7 +17082,7 @@
     </row>
     <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7">
         <v>3676761</v>
@@ -17141,7 +17161,7 @@
     </row>
     <row r="59" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B59" s="7">
         <v>3085326</v>
@@ -17170,7 +17190,7 @@
     </row>
     <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B60" s="7">
         <v>5703600</v>
@@ -17200,7 +17220,7 @@
     </row>
     <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B61" s="7">
         <v>3695638</v>
@@ -17290,7 +17310,7 @@
     </row>
     <row r="67" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B67" s="7">
         <v>3757737</v>
@@ -17320,7 +17340,7 @@
     </row>
     <row r="68" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B68" s="7">
         <v>5720444</v>
@@ -17349,7 +17369,7 @@
     </row>
     <row r="69" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B69" s="7">
         <v>3735679</v>
@@ -17389,7 +17409,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L72" s="1"/>
       <c r="O72" s="2"/>
@@ -17401,22 +17421,22 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B74">
         <v>293165886150</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F74">
         <v>49781113479</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -17425,13 +17445,13 @@
         <v>24824811055</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F75" s="1">
         <v>18840726683</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -17440,13 +17460,13 @@
         <v>107385215</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F76" s="8">
         <v>137935749</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -17455,7 +17475,7 @@
         <v>66465360</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D77">
         <f>B77/B76 * 100</f>
@@ -17465,7 +17485,7 @@
         <v>80426473</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <f>F77/F76 * 100</f>
@@ -17478,13 +17498,13 @@
         <v>8217325689</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F78" s="1">
         <v>3270462480</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L78" s="1"/>
     </row>
@@ -17493,13 +17513,13 @@
         <v>13427846</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F79" s="1">
         <v>11965839</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L79" s="1"/>
     </row>
@@ -17508,14 +17528,14 @@
         <v>19240107010</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1">
         <v>3176663576</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L80" s="1"/>
     </row>
@@ -17524,14 +17544,14 @@
         <v>56285</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1">
         <v>153567</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L81" s="1"/>
       <c r="O81" s="2"/>
@@ -17541,13 +17561,13 @@
         <v>145901.616606</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F82" s="1">
         <v>24089.685216000002</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L82" s="1"/>
       <c r="O82" s="2"/>
@@ -17557,13 +17577,13 @@
         <v>145908.16602999999</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F83" s="1">
         <v>24090.251154000001</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L83" s="1"/>
     </row>
@@ -17572,7 +17592,7 @@
         <v>279266970609</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D84">
         <f>B84/B74 *100</f>
@@ -17582,7 +17602,7 @@
         <v>42107495334</v>
       </c>
       <c r="G84" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H84">
         <f>F84/F74 * 100</f>
@@ -17594,7 +17614,7 @@
         <v>204876382064</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D85">
         <f>B85/B74 *100</f>
@@ -17605,7 +17625,7 @@
         <v>31305365650</v>
       </c>
       <c r="G85" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H85">
         <f>F85/F74 * 100</f>
@@ -17621,27 +17641,27 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B89">
         <v>291383760291</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F89" s="8">
         <v>56558855903</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -17649,13 +17669,13 @@
         <v>28450219548</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F90" s="8">
         <v>23288130949</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -17663,13 +17683,13 @@
         <v>80883069</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F91" s="8">
         <v>80729662</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L91" s="1"/>
     </row>
@@ -17678,7 +17698,7 @@
         <v>34280815</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D92">
         <f>B92/B91 * 100</f>
@@ -17688,7 +17708,7 @@
         <v>40768949</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <f>F92/F91 * 100</f>
@@ -17701,14 +17721,14 @@
         <v>9596658304</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="8">
         <v>6287077403</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L93" s="1"/>
       <c r="O93" s="2"/>
@@ -17718,14 +17738,14 @@
         <v>10020645</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="8">
         <v>16761248</v>
       </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L94" s="1"/>
       <c r="O94" s="2"/>
@@ -17735,14 +17755,14 @@
         <v>20170458520</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="8">
         <v>4082784315</v>
       </c>
       <c r="G95" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L95" s="1"/>
     </row>
@@ -17751,14 +17771,14 @@
         <v>59652</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="8">
         <v>165926</v>
       </c>
       <c r="G96" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -17766,13 +17786,13 @@
         <v>152724.854081</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F97" s="8">
         <v>31516.753441000001</v>
       </c>
       <c r="G97" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L97" s="1"/>
     </row>
@@ -17781,14 +17801,14 @@
         <v>152727.68517099999</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="8">
         <v>31523.460064999999</v>
       </c>
       <c r="G98" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L98" s="1"/>
       <c r="O98" s="2"/>
@@ -17798,7 +17818,7 @@
         <v>275621376980</v>
       </c>
       <c r="C99" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D99">
         <f>B99/B89 *100</f>
@@ -17808,7 +17828,7 @@
         <v>45555508064</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H99">
         <f>F99/F89 * 100</f>
@@ -17820,7 +17840,7 @@
         <v>188351393827</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D100">
         <f>B100/B89 *100</f>
@@ -17831,7 +17851,7 @@
         <v>30834128883</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H100">
         <f>F100/F89 * 100</f>
@@ -17844,22 +17864,22 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B102" s="1">
         <v>9903769661</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E102" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F102">
         <v>12983933589</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L102" s="1"/>
     </row>
@@ -17868,13 +17888,13 @@
         <v>10003001646</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F103">
         <v>15230737067</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -17882,13 +17902,13 @@
         <v>7644801</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F104">
         <v>16026912</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L104" s="1"/>
     </row>
@@ -17897,7 +17917,7 @@
         <v>6449026</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D105">
         <f>B105/B104 * 100</f>
@@ -17907,7 +17927,7 @@
         <v>13657835</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H105">
         <f>F105/F104 * 100</f>
@@ -17920,14 +17940,14 @@
         <v>1801944598</v>
       </c>
       <c r="C106" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106">
         <v>2877110540</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L106" s="1"/>
       <c r="O106" s="2"/>
@@ -17937,14 +17957,14 @@
         <v>734015</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107">
         <v>2340307</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L107" s="1"/>
       <c r="O107" s="2"/>
@@ -17954,13 +17974,13 @@
         <v>1084534758</v>
       </c>
       <c r="C108" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F108">
         <v>1081110444</v>
       </c>
       <c r="G108" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L108" s="1"/>
     </row>
@@ -17969,13 +17989,13 @@
         <v>72220</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F109">
         <v>192467</v>
       </c>
       <c r="G109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -17983,13 +18003,13 @@
         <v>8228.589532</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F110">
         <v>8171.0605390000001</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L110" s="1"/>
     </row>
@@ -17998,14 +18018,14 @@
         <v>8228.8411789999991</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
         <v>8171.2514639999999</v>
       </c>
       <c r="G111" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L111" s="1"/>
       <c r="O111" s="2"/>
@@ -18015,7 +18035,7 @@
         <v>5819359277</v>
       </c>
       <c r="C112" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D112">
         <f>B112/B102 *100</f>
@@ -18026,7 +18046,7 @@
         <v>6910450344</v>
       </c>
       <c r="G112" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H112">
         <f>F112/F102 * 100</f>
@@ -18038,7 +18058,7 @@
         <v>4558104545</v>
       </c>
       <c r="C113" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D113">
         <f>B113/B102 *100</f>
@@ -18048,7 +18068,7 @@
         <v>5315934210</v>
       </c>
       <c r="G113" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H113">
         <f>F113/F102 * 100</f>
@@ -18057,22 +18077,22 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B115" s="1">
         <v>352994820600</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E115" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F115">
         <v>47204334026</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -18080,14 +18100,14 @@
         <v>96298334129</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
         <v>35805355690</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -18095,13 +18115,13 @@
         <v>52141276</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F117">
         <v>70857119</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L117" s="1"/>
     </row>
@@ -18110,7 +18130,7 @@
         <v>26285788</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D118">
         <f>B118/B117 * 100</f>
@@ -18120,7 +18140,7 @@
         <v>45888474</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <f>F118/F117 * 100</f>
@@ -18133,14 +18153,14 @@
         <v>20581198544</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119">
         <v>7273477606</v>
       </c>
       <c r="G119" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L119" s="1"/>
       <c r="O119" s="2"/>
@@ -18150,7 +18170,7 @@
         <v>7201009</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -18158,7 +18178,7 @@
         <v>10769511</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -18171,7 +18191,7 @@
         <v>22857878235</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -18179,7 +18199,7 @@
         <v>3092029193</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -18191,7 +18211,7 @@
         <v>36754</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -18199,7 +18219,7 @@
         <v>141018</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -18210,7 +18230,7 @@
         <v>173205.587527</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -18218,7 +18238,7 @@
         <v>23564.034084999999</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -18230,7 +18250,7 @@
         <v>173206.04421699999</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -18238,7 +18258,7 @@
         <v>23564.145564999999</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -18251,7 +18271,7 @@
         <v>314341141404</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D125">
         <f>B125/B115 *100</f>
@@ -18262,7 +18282,7 @@
         <v>31921056462</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H125">
         <f>F125/F115 *100</f>
@@ -18276,7 +18296,7 @@
         <v>184970884839</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D126">
         <f>B126/B115 *100</f>
@@ -18287,7 +18307,7 @@
         <v>18103486619</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H126">
         <f>F126/F115 *100</f>
@@ -18309,23 +18329,23 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B128" s="8">
         <v>10656570737</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F128" s="8">
         <v>14437744044</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -18336,7 +18356,7 @@
         <v>12294731425</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -18344,7 +18364,7 @@
         <v>17769886138</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -18355,7 +18375,7 @@
         <v>11224097</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -18363,7 +18383,7 @@
         <v>17914380</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -18374,7 +18394,7 @@
         <v>9647332</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D131">
         <f>B131/B130 * 100</f>
@@ -18385,7 +18405,7 @@
         <v>16343140</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <f>F131/F130 * 100</f>
@@ -18399,7 +18419,7 @@
         <v>2341815727</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -18407,7 +18427,7 @@
         <v>3457301929</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -18418,7 +18438,7 @@
         <v>1216248</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -18426,7 +18446,7 @@
         <v>2229752</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -18437,7 +18457,7 @@
         <v>1070127496</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -18445,7 +18465,7 @@
         <v>1076978252</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -18456,7 +18476,7 @@
         <v>131284</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -18464,7 +18484,7 @@
         <v>239136</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -18475,7 +18495,7 @@
         <v>8140.7142919999997</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -18483,7 +18503,7 @@
         <v>8161.6191760000002</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -18494,7 +18514,7 @@
         <v>8140.7603239999999</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -18502,7 +18522,7 @@
         <v>8161.8213429999996</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -18513,7 +18533,7 @@
         <v>5789480497</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D138">
         <f>B138/B128 *100</f>
@@ -18524,7 +18544,7 @@
         <v>7436962519</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H138">
         <f>F138/F128 *100</f>
@@ -18538,7 +18558,7 @@
         <v>4255921065</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D139">
         <f>B139/B128 *100</f>
@@ -18549,7 +18569,7 @@
         <v>5252437341</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H139">
         <f>F139/F128 *100</f>
@@ -18571,23 +18591,23 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B141" s="1">
         <v>140372037854</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F141" s="8">
         <v>18927648330</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -18598,7 +18618,7 @@
         <v>9573571141</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="2"/>
@@ -18606,7 +18626,7 @@
         <v>17588322425</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -18617,7 +18637,7 @@
         <v>50314576</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -18625,7 +18645,7 @@
         <v>29231216</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -18636,7 +18656,7 @@
         <v>39847400</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D144">
         <f>B144/B143 * 100</f>
@@ -18647,7 +18667,7 @@
         <v>14983119</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H144">
         <f>F144/F143 * 100</f>
@@ -18661,7 +18681,7 @@
         <v>2045861740</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -18669,7 +18689,7 @@
         <v>3323509099</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -18680,7 +18700,7 @@
         <v>6064634</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="2"/>
@@ -18688,7 +18708,7 @@
         <v>5001075</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -18699,7 +18719,7 @@
         <v>10199907546</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -18707,7 +18727,7 @@
         <v>1294282916</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -18718,7 +18738,7 @@
         <v>92962</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -18726,7 +18746,7 @@
         <v>165512</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -18737,7 +18757,7 @@
         <v>77556.098262</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -18745,7 +18765,7 @@
         <v>10001.436261999999</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -18756,7 +18776,7 @@
         <v>77558.522878999996</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -18764,7 +18784,7 @@
         <v>10001.902163000001</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -18775,7 +18795,7 @@
         <v>135937569926</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D151">
         <f>B151/B141 *100</f>
@@ -18786,7 +18806,7 @@
         <v>11813904157</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H151">
         <f>F151/F141 *100</f>
@@ -18800,7 +18820,7 @@
         <v>115116222107</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D152">
         <f>B152/B141 *100</f>
@@ -18811,7 +18831,7 @@
         <v>7992107927</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H152">
         <f>F152/F141 *100</f>
@@ -18833,23 +18853,23 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B154" s="8">
         <v>377936277021</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F154" s="8">
         <v>27114392068</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -18860,7 +18880,7 @@
         <v>9210610757</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -18868,7 +18888,7 @@
         <v>11712226547</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -18879,7 +18899,7 @@
         <v>43957880</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -18887,7 +18907,7 @@
         <v>39364647</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -18898,7 +18918,7 @@
         <v>36193634</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D157">
         <f>B157/B156 * 100</f>
@@ -18909,7 +18929,7 @@
         <v>21327518</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H157">
         <f>F157/F156 * 100</f>
@@ -18923,7 +18943,7 @@
         <v>1611529516</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -18931,7 +18951,7 @@
         <v>1959438829</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -18942,7 +18962,7 @@
         <v>2685459</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -18950,7 +18970,7 @@
         <v>3546976</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -18961,7 +18981,7 @@
         <v>24772492366</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -18969,7 +18989,7 @@
         <v>1963964927</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -18980,7 +19000,7 @@
         <v>56881</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -18988,7 +19008,7 @@
         <v>74605</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -18998,7 +19018,7 @@
         <v>188081.07397</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -19006,7 +19026,7 @@
         <v>15169.09672</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -19016,7 +19036,7 @@
         <v>188081.106764</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -19024,7 +19044,7 @@
         <v>15169.195011</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -19034,7 +19054,7 @@
         <v>373218752177</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D164">
         <f>B164/B154 *100</f>
@@ -19045,7 +19065,7 @@
         <v>22163337389</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H164">
         <f>F164/F154 *100</f>
@@ -19058,7 +19078,7 @@
         <v>320566733711</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D165">
         <f>B165/B154 *100</f>
@@ -19069,7 +19089,7 @@
         <v>17794527903</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H165">
         <f>F165/F154 *100</f>
@@ -19089,23 +19109,23 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B167" s="8">
         <v>12076584980</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F167" s="8">
         <v>12965394483</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
@@ -19115,13 +19135,13 @@
         <v>12346727746</v>
       </c>
       <c r="C168" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F168">
         <v>14314218681</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -19129,13 +19149,13 @@
         <v>11093798</v>
       </c>
       <c r="C169" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F169">
         <v>13691980</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -19143,7 +19163,7 @@
         <v>9730209</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D170">
         <f>B170/B169 * 100</f>
@@ -19153,7 +19173,7 @@
         <v>11672153</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H170">
         <f>F170/F169 * 100</f>
@@ -19165,13 +19185,13 @@
         <v>2279754158</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F171">
         <v>2675249889</v>
       </c>
       <c r="G171" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -19179,13 +19199,13 @@
         <v>739033</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F172">
         <v>1768821</v>
       </c>
       <c r="G172" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -19193,13 +19213,13 @@
         <v>1086084669</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F173">
         <v>1072818473</v>
       </c>
       <c r="G173" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -19207,13 +19227,13 @@
         <v>117881</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F174" s="2">
         <v>163409</v>
       </c>
       <c r="G174" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -19221,13 +19241,13 @@
         <v>8270.1108239999994</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F175" s="2">
         <v>8117.7151569999996</v>
       </c>
       <c r="G175" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -19235,13 +19255,13 @@
         <v>8270.3648080000003</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F176">
         <v>8117.9177650000001</v>
       </c>
       <c r="G176" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -19249,7 +19269,7 @@
         <v>7067664368</v>
       </c>
       <c r="C177" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D177">
         <f>B177/B167 *100</f>
@@ -19259,7 +19279,7 @@
         <v>7120705786</v>
       </c>
       <c r="G177" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H177">
         <f>F177/F167 *100</f>
@@ -19271,7 +19291,7 @@
         <v>5532820708</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D178">
         <f>B178/B167 *100</f>
@@ -19281,7 +19301,7 @@
         <v>4972227539</v>
       </c>
       <c r="G178" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H178">
         <f>F178/F167 *100</f>
@@ -19294,22 +19314,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B180">
         <v>1569623882</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E180" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F180">
         <v>1706322000</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -19317,13 +19337,13 @@
         <v>1802683973</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F181">
         <v>2164192581</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -19331,13 +19351,13 @@
         <v>3984193</v>
       </c>
       <c r="C182" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F182">
         <v>3468154</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -19345,7 +19365,7 @@
         <v>3343324</v>
       </c>
       <c r="C183" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D183">
         <f>B183/B182 * 100</f>
@@ -19355,7 +19375,7 @@
         <v>3017145</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <f>F183/F182 * 100</f>
@@ -19367,13 +19387,13 @@
         <v>344809460</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F184">
         <v>418529478</v>
       </c>
       <c r="G184" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -19381,13 +19401,13 @@
         <v>406698</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F185">
         <v>688853</v>
       </c>
       <c r="G185" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -19395,13 +19415,13 @@
         <v>152765963</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F186">
         <v>144457912</v>
       </c>
       <c r="G186" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -19409,13 +19429,13 @@
         <v>30397</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F187">
         <v>36692</v>
       </c>
       <c r="G187" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -19423,13 +19443,13 @@
         <v>1166.3494109999999</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F188">
         <v>1099.4120969999999</v>
       </c>
       <c r="G188" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -19437,13 +19457,13 @@
         <v>1166.8409240000001</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F189" s="2">
         <v>1099.831844</v>
       </c>
       <c r="G189" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -19451,7 +19471,7 @@
         <v>871061622</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D190">
         <f>B190/B180 *100</f>
@@ -19461,7 +19481,7 @@
         <v>855334715</v>
       </c>
       <c r="G190" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H190">
         <f>F190/F180 *100</f>
@@ -19473,7 +19493,7 @@
         <v>685031096</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D191">
         <f>B191/B180 *100</f>
@@ -19483,7 +19503,7 @@
         <v>676730926</v>
       </c>
       <c r="G191" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H191">
         <f>F191/F180 *100</f>
@@ -19492,22 +19512,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B193">
         <v>378657476449</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E193" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F193" s="8">
         <v>35238317026</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -19515,13 +19535,13 @@
         <v>39153580415</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F194" s="8">
         <v>18217776312</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -19529,13 +19549,13 @@
         <v>47422457</v>
       </c>
       <c r="C195" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F195" s="8">
         <v>34894184</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -19543,7 +19563,7 @@
         <v>27501840</v>
       </c>
       <c r="C196" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D196">
         <f>B196/B195 * 100</f>
@@ -19553,7 +19573,7 @@
         <v>17799439</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <f>F196/F195 * 100</f>
@@ -19565,13 +19585,13 @@
         <v>9324487119</v>
       </c>
       <c r="C197" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F197" s="8">
         <v>3615541055</v>
       </c>
       <c r="G197" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -19579,13 +19599,13 @@
         <v>7981400</v>
       </c>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F198" s="8">
         <v>6031133</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -19593,13 +19613,13 @@
         <v>23854748549</v>
       </c>
       <c r="C199" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F199" s="8">
         <v>2444770625</v>
       </c>
       <c r="G199" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -19607,13 +19627,13 @@
         <v>43851</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F200" s="8">
         <v>58063</v>
       </c>
       <c r="G200" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -19621,13 +19641,13 @@
         <v>180688.22492800001</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F201" s="8">
         <v>18759.165268000001</v>
       </c>
       <c r="G201" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -19635,13 +19655,13 @@
         <v>180688.47887200001</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F202" s="8">
         <v>18759.278558000002</v>
       </c>
       <c r="G202" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -19649,7 +19669,7 @@
         <v>363622825865</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D203">
         <f>B203/B193 *100</f>
@@ -19659,7 +19679,7 @@
         <v>27774171153</v>
       </c>
       <c r="G203" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H203">
         <f>F203/F193 *100</f>
@@ -19671,7 +19691,7 @@
         <v>287244249904</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D204">
         <f>B204/B193 *100</f>
@@ -19681,7 +19701,7 @@
         <v>19679120844</v>
       </c>
       <c r="G204" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H204">
         <f>F204/F193 *100</f>
@@ -19693,22 +19713,22 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B206">
         <v>155262476119</v>
       </c>
       <c r="C206" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E206" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F206" s="8">
         <v>15996165812</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -19716,13 +19736,13 @@
         <v>8947619295</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F207" s="8">
         <v>16688628469</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -19730,13 +19750,13 @@
         <v>46742995</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F208" s="8">
         <v>20930203</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -19744,7 +19764,7 @@
         <v>36774938</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D209">
         <f>B209/B208 * 100</f>
@@ -19754,7 +19774,7 @@
         <v>15651444</v>
       </c>
       <c r="G209" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <f>F209/F208 * 100</f>
@@ -19766,13 +19786,13 @@
         <v>1822213563</v>
       </c>
       <c r="C210" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F210" s="8">
         <v>3133634285</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -19780,13 +19800,13 @@
         <v>5050180</v>
       </c>
       <c r="C211" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F211" s="8">
         <v>3638231</v>
       </c>
       <c r="G211" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -19794,13 +19814,13 @@
         <v>10592049582</v>
       </c>
       <c r="C212" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F212" s="8">
         <v>1235207676</v>
       </c>
       <c r="G212" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -19808,13 +19828,13 @@
         <v>87719</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F213" s="8">
         <v>195602</v>
       </c>
       <c r="G213" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -19822,13 +19842,13 @@
         <v>80392.799119000003</v>
       </c>
       <c r="C214" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F214" s="8">
         <v>9482.4069679999993</v>
       </c>
       <c r="G214" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -19836,13 +19856,13 @@
         <v>80397.015318999998</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F215" s="8">
         <v>9482.8254949999991</v>
       </c>
       <c r="G215" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -19850,7 +19870,7 @@
         <v>151199176392</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D216">
         <f>B216/B206 *100</f>
@@ -19860,7 +19880,7 @@
         <v>9801255427</v>
       </c>
       <c r="G216" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H216">
         <f>F216/F206 *100</f>
@@ -19872,7 +19892,7 @@
         <v>130464984000</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D217">
         <f>B217/B206 *100</f>
@@ -19882,7 +19902,7 @@
         <v>6592808810</v>
       </c>
       <c r="G217" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H217">
         <f>F217/F206 *100</f>
@@ -19895,22 +19915,22 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B219">
         <v>366421619954</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E219" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F219">
         <v>116583297063</v>
       </c>
       <c r="G219" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -19918,13 +19938,13 @@
         <v>9108335790</v>
       </c>
       <c r="C220" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F220">
         <v>9909333198</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -19932,13 +19952,13 @@
         <v>35107389</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F221">
         <v>134297148</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -19946,7 +19966,7 @@
         <v>31642806</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D222">
         <f>B222/B221 * 100</f>
@@ -19956,7 +19976,7 @@
         <v>79343459</v>
       </c>
       <c r="G222" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H222">
         <f>F222/F221 * 100</f>
@@ -19968,13 +19988,13 @@
         <v>1602252517</v>
       </c>
       <c r="C223" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F223">
         <v>1792636701</v>
       </c>
       <c r="G223" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -19982,13 +20002,13 @@
         <v>2180273</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F224">
         <v>11366181</v>
       </c>
       <c r="G224" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -19996,13 +20016,13 @@
         <v>23338607993</v>
       </c>
       <c r="C225" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F225">
         <v>6732040327</v>
       </c>
       <c r="G225" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -20010,13 +20030,13 @@
         <v>69405</v>
       </c>
       <c r="C226" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F226">
         <v>104051</v>
       </c>
       <c r="G226" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -20024,13 +20044,13 @@
         <v>176320.07876100001</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F227">
         <v>51010.314488999997</v>
       </c>
       <c r="G227" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -20038,13 +20058,13 @@
         <v>176320.360441</v>
       </c>
       <c r="C228" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F228">
         <v>51010.422506000003</v>
       </c>
       <c r="G228" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -20052,7 +20072,7 @@
         <v>361330574321</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D229">
         <f>B229/B219 *100</f>
@@ -20062,7 +20082,7 @@
         <v>113013213731</v>
       </c>
       <c r="G229" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H229">
         <f>F229/F219 *100</f>
@@ -20074,7 +20094,7 @@
         <v>304478766971</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D230">
         <f>B230/B219 *100</f>
@@ -20084,7 +20104,7 @@
         <v>98453762177</v>
       </c>
       <c r="G230" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H230">
         <f>F230/F219 *100</f>
@@ -20097,22 +20117,22 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B232">
         <v>422324396332</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E232" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F232" s="8">
         <v>228745975499</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -20120,13 +20140,13 @@
         <v>151185990666</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F233" s="8">
         <v>89036318324</v>
       </c>
       <c r="G233" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -20134,13 +20154,13 @@
         <v>75671228</v>
       </c>
       <c r="C234" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F234" s="8">
         <v>96931488</v>
       </c>
       <c r="G234" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -20148,7 +20168,7 @@
         <v>38792140</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D235">
         <f>B235/B234 * 100</f>
@@ -20158,7 +20178,7 @@
         <v>45415347</v>
       </c>
       <c r="G235" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H235">
         <f>F235/F234 * 100</f>
@@ -20170,13 +20190,13 @@
         <v>19130177395</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F236" s="8">
         <v>11646209410</v>
       </c>
       <c r="G236" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -20184,13 +20204,13 @@
         <v>6216905</v>
       </c>
       <c r="C237" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F237" s="8">
         <v>7931817</v>
       </c>
       <c r="G237" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -20198,13 +20218,13 @@
         <v>26887374279</v>
       </c>
       <c r="C238" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F238" s="8">
         <v>12924374487</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -20212,13 +20232,13 @@
         <v>49184</v>
       </c>
       <c r="C239" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F239" s="8">
         <v>106720</v>
       </c>
       <c r="G239" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -20226,13 +20246,13 @@
         <v>203189.279435</v>
       </c>
       <c r="C240" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F240" s="8">
         <v>97676.756932000004</v>
       </c>
       <c r="G240" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -20240,13 +20260,13 @@
         <v>203189.34613300001</v>
       </c>
       <c r="C241" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F241" s="8">
         <v>97676.999679</v>
       </c>
       <c r="G241" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -20254,7 +20274,7 @@
         <v>356764213315</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D242">
         <f>B242/B232 *100</f>
@@ -20264,7 +20284,7 @@
         <v>189934028126</v>
       </c>
       <c r="G242" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H242">
         <f>F242/F232 *100</f>
@@ -20276,7 +20296,7 @@
         <v>269442293440</v>
       </c>
       <c r="C243" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D243">
         <f>B243/B232 *100</f>
@@ -20286,7 +20306,7 @@
         <v>135542995175</v>
       </c>
       <c r="G243" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H243">
         <f>F243/F232 *100</f>

--- a/Data Structures/linked_list/MPMC_ALT.xlsx
+++ b/Data Structures/linked_list/MPMC_ALT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1368,11 +1368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109970176"/>
-        <c:axId val="109972096"/>
+        <c:axId val="116503680"/>
+        <c:axId val="116505984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109970176"/>
+        <c:axId val="116503680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109972096"/>
+        <c:crossAx val="116505984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109972096"/>
+        <c:axId val="116505984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109970176"/>
+        <c:crossAx val="116503680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,11 +1669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111344640"/>
-        <c:axId val="111379584"/>
+        <c:axId val="59877248"/>
+        <c:axId val="64675840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111344640"/>
+        <c:axId val="59877248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111379584"/>
+        <c:crossAx val="64675840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111379584"/>
+        <c:axId val="64675840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111344640"/>
+        <c:crossAx val="59877248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1967,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111434752"/>
-        <c:axId val="111465600"/>
+        <c:axId val="93661056"/>
+        <c:axId val="93683712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111434752"/>
+        <c:axId val="93661056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111465600"/>
+        <c:crossAx val="93683712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2007,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111465600"/>
+        <c:axId val="93683712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111434752"/>
+        <c:crossAx val="93661056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2555,11 +2555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111628288"/>
-        <c:axId val="111630208"/>
+        <c:axId val="116599424"/>
+        <c:axId val="116658944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111628288"/>
+        <c:axId val="116599424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111630208"/>
+        <c:crossAx val="116658944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111630208"/>
+        <c:axId val="116658944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111628288"/>
+        <c:crossAx val="116599424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2975,11 +2975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111905024"/>
-        <c:axId val="111923584"/>
+        <c:axId val="121402496"/>
+        <c:axId val="121404416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111905024"/>
+        <c:axId val="121402496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111923584"/>
+        <c:crossAx val="121404416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111923584"/>
+        <c:axId val="121404416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111905024"/>
+        <c:crossAx val="121402496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3394,11 +3394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117605120"/>
-        <c:axId val="117607040"/>
+        <c:axId val="121466240"/>
+        <c:axId val="121472512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117605120"/>
+        <c:axId val="121466240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117607040"/>
+        <c:crossAx val="121472512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117607040"/>
+        <c:axId val="121472512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117605120"/>
+        <c:crossAx val="121466240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3519,7 +3519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3832,11 +3831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118836224"/>
-        <c:axId val="118850688"/>
+        <c:axId val="121530240"/>
+        <c:axId val="121544704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118836224"/>
+        <c:axId val="121530240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,14 +3857,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118850688"/>
+        <c:crossAx val="121544704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3873,7 +3871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118850688"/>
+        <c:axId val="121544704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,21 +3894,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118836224"/>
+        <c:crossAx val="121530240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4220,11 +4216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118901760"/>
-        <c:axId val="118924416"/>
+        <c:axId val="94836608"/>
+        <c:axId val="94842880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118901760"/>
+        <c:axId val="94836608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118924416"/>
+        <c:crossAx val="94842880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4261,7 +4257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118924416"/>
+        <c:axId val="94842880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118901760"/>
+        <c:crossAx val="94836608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4608,11 +4604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119118848"/>
-        <c:axId val="119137408"/>
+        <c:axId val="94857088"/>
+        <c:axId val="94875648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119118848"/>
+        <c:axId val="94857088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4641,7 +4637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119137408"/>
+        <c:crossAx val="94875648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4649,7 +4645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119137408"/>
+        <c:axId val="94875648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,7 +4675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119118848"/>
+        <c:crossAx val="94857088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,11 +4992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119155712"/>
-        <c:axId val="119219328"/>
+        <c:axId val="94979968"/>
+        <c:axId val="94982144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119155712"/>
+        <c:axId val="94979968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5029,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119219328"/>
+        <c:crossAx val="94982144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5037,7 +5033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119219328"/>
+        <c:axId val="94982144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,7 +5063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119155712"/>
+        <c:crossAx val="94979968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5876,11 +5872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119300096"/>
-        <c:axId val="119302016"/>
+        <c:axId val="95029888"/>
+        <c:axId val="95044352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119300096"/>
+        <c:axId val="95029888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,7 +5905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119302016"/>
+        <c:crossAx val="95044352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5917,7 +5913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119302016"/>
+        <c:axId val="95044352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,7 +5943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119300096"/>
+        <c:crossAx val="95029888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5999,7 +5995,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7002,11 +6997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110153728"/>
-        <c:axId val="110155648"/>
+        <c:axId val="57838208"/>
+        <c:axId val="57864960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110153728"/>
+        <c:axId val="57838208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,14 +7023,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110155648"/>
+        <c:crossAx val="57864960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7043,7 +7037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110155648"/>
+        <c:axId val="57864960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,21 +7060,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110153728"/>
+        <c:crossAx val="57838208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8032,11 +8024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119950336"/>
-        <c:axId val="119956608"/>
+        <c:axId val="95102848"/>
+        <c:axId val="95121408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119950336"/>
+        <c:axId val="95102848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8065,7 +8057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119956608"/>
+        <c:crossAx val="95121408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8073,7 +8065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119956608"/>
+        <c:axId val="95121408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8103,7 +8095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119950336"/>
+        <c:crossAx val="95102848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9070,11 +9062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95430144"/>
-        <c:axId val="95432064"/>
+        <c:axId val="95760768"/>
+        <c:axId val="95762688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95430144"/>
+        <c:axId val="95760768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9103,7 +9095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95432064"/>
+        <c:crossAx val="95762688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9111,7 +9103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95432064"/>
+        <c:axId val="95762688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9141,7 +9133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95430144"/>
+        <c:crossAx val="95760768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10121,11 +10113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95494144"/>
-        <c:axId val="95496064"/>
+        <c:axId val="95808128"/>
+        <c:axId val="95810304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95494144"/>
+        <c:axId val="95808128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10147,14 +10139,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95496064"/>
+        <c:crossAx val="95810304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10162,7 +10153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95496064"/>
+        <c:axId val="95810304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10185,14 +10176,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95494144"/>
+        <c:crossAx val="95808128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10522,11 +10512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106143744"/>
-        <c:axId val="106145664"/>
+        <c:axId val="95849088"/>
+        <c:axId val="95859456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106143744"/>
+        <c:axId val="95849088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10554,7 +10544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106145664"/>
+        <c:crossAx val="95859456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10562,7 +10552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106145664"/>
+        <c:axId val="95859456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10591,7 +10581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106143744"/>
+        <c:crossAx val="95849088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10911,11 +10901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108727680"/>
-        <c:axId val="95716864"/>
+        <c:axId val="95893760"/>
+        <c:axId val="95895936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108727680"/>
+        <c:axId val="95893760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10943,7 +10933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95716864"/>
+        <c:crossAx val="95895936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10951,7 +10941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95716864"/>
+        <c:axId val="95895936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10980,7 +10970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108727680"/>
+        <c:crossAx val="95893760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11300,11 +11290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95743360"/>
-        <c:axId val="95749632"/>
+        <c:axId val="95918336"/>
+        <c:axId val="95924608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95743360"/>
+        <c:axId val="95918336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11332,7 +11322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95749632"/>
+        <c:crossAx val="95924608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11340,7 +11330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95749632"/>
+        <c:axId val="95924608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11369,7 +11359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95743360"/>
+        <c:crossAx val="95918336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11689,11 +11679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95776128"/>
-        <c:axId val="95794688"/>
+        <c:axId val="96033024"/>
+        <c:axId val="96035200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95776128"/>
+        <c:axId val="96033024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11721,7 +11711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95794688"/>
+        <c:crossAx val="96035200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11729,7 +11719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95794688"/>
+        <c:axId val="96035200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11758,13 +11748,590 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95776128"/>
+        <c:crossAx val="96033024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3619953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5952148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3589063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5349387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>841968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1242627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1156551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1075046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3793894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>453366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>427946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>422565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>417965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>415047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4352073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6294285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3618811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4602640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8647630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4443804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3129801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1438792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2903255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2302230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1643140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1661205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1646202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1609534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1659569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5705844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8696890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11042185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13860795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13008780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13963041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13891453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13866634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3676761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6399825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4956513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5942809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5193797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6876868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5572043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7276298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124347904"/>
+        <c:axId val="124349440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124347904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124349440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124349440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124347904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12799,11 +13366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110300160"/>
-        <c:axId val="110314624"/>
+        <c:axId val="58001280"/>
+        <c:axId val="58032128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110300160"/>
+        <c:axId val="58001280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12832,7 +13399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110314624"/>
+        <c:crossAx val="58032128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12840,7 +13407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110314624"/>
+        <c:axId val="58032128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12870,7 +13437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110300160"/>
+        <c:crossAx val="58001280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13105,11 +13672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110451712"/>
-        <c:axId val="110474368"/>
+        <c:axId val="58394496"/>
+        <c:axId val="58396672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110451712"/>
+        <c:axId val="58394496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13138,7 +13705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110474368"/>
+        <c:crossAx val="58396672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13146,7 +13713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110474368"/>
+        <c:axId val="58396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13176,7 +13743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110451712"/>
+        <c:crossAx val="58394496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13407,11 +13974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110525440"/>
-        <c:axId val="110556288"/>
+        <c:axId val="58427264"/>
+        <c:axId val="58441728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110525440"/>
+        <c:axId val="58427264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13440,7 +14007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110556288"/>
+        <c:crossAx val="58441728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13448,7 +14015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110556288"/>
+        <c:axId val="58441728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13478,7 +14045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110525440"/>
+        <c:crossAx val="58427264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13543,7 +14110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13709,11 +14275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110713856"/>
-        <c:axId val="110785664"/>
+        <c:axId val="58746752"/>
+        <c:axId val="58769408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110713856"/>
+        <c:axId val="58746752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13735,14 +14301,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110785664"/>
+        <c:crossAx val="58769408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13750,7 +14315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110785664"/>
+        <c:axId val="58769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13773,21 +14338,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110713856"/>
+        <c:crossAx val="58746752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14010,11 +14573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110816256"/>
-        <c:axId val="110900352"/>
+        <c:axId val="59770752"/>
+        <c:axId val="59785216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110816256"/>
+        <c:axId val="59770752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14042,7 +14605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110900352"/>
+        <c:crossAx val="59785216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14050,7 +14613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110900352"/>
+        <c:axId val="59785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14079,7 +14642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110816256"/>
+        <c:crossAx val="59770752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14308,11 +14871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110980096"/>
-        <c:axId val="111178880"/>
+        <c:axId val="59811712"/>
+        <c:axId val="59817984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110980096"/>
+        <c:axId val="59811712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14340,7 +14903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111178880"/>
+        <c:crossAx val="59817984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14348,7 +14911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111178880"/>
+        <c:axId val="59817984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14377,7 +14940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110980096"/>
+        <c:crossAx val="59811712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14564,11 +15127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111213568"/>
-        <c:axId val="111293568"/>
+        <c:axId val="59840384"/>
+        <c:axId val="59846656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111213568"/>
+        <c:axId val="59840384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14596,7 +15159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111293568"/>
+        <c:crossAx val="59846656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14604,7 +15167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111293568"/>
+        <c:axId val="59846656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14633,7 +15196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111213568"/>
+        <c:crossAx val="59840384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15482,6 +16045,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15774,7 +16367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>

--- a/Data Structures/linked_list/MPMC_ALT.xlsx
+++ b/Data Structures/linked_list/MPMC_ALT.xlsx
@@ -1368,11 +1368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116503680"/>
-        <c:axId val="116505984"/>
+        <c:axId val="108964096"/>
+        <c:axId val="108970368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116503680"/>
+        <c:axId val="108964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116505984"/>
+        <c:crossAx val="108970368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116505984"/>
+        <c:axId val="108970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116503680"/>
+        <c:crossAx val="108964096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,11 +1669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59877248"/>
-        <c:axId val="64675840"/>
+        <c:axId val="109417216"/>
+        <c:axId val="109419136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59877248"/>
+        <c:axId val="109417216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64675840"/>
+        <c:crossAx val="109419136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64675840"/>
+        <c:axId val="109419136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59877248"/>
+        <c:crossAx val="109417216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1967,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93661056"/>
-        <c:axId val="93683712"/>
+        <c:axId val="114447104"/>
+        <c:axId val="114449024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93661056"/>
+        <c:axId val="114447104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93683712"/>
+        <c:crossAx val="114449024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2007,7 +2007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93683712"/>
+        <c:axId val="114449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93661056"/>
+        <c:crossAx val="114447104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2555,11 +2555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116599424"/>
-        <c:axId val="116658944"/>
+        <c:axId val="114505216"/>
+        <c:axId val="114507136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116599424"/>
+        <c:axId val="114505216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116658944"/>
+        <c:crossAx val="114507136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116658944"/>
+        <c:axId val="114507136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116599424"/>
+        <c:crossAx val="114505216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2975,11 +2975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121402496"/>
-        <c:axId val="121404416"/>
+        <c:axId val="114556928"/>
+        <c:axId val="114558848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121402496"/>
+        <c:axId val="114556928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121404416"/>
+        <c:crossAx val="114558848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121404416"/>
+        <c:axId val="114558848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121402496"/>
+        <c:crossAx val="114556928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3394,11 +3394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121466240"/>
-        <c:axId val="121472512"/>
+        <c:axId val="114587904"/>
+        <c:axId val="114594176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121466240"/>
+        <c:axId val="114587904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121472512"/>
+        <c:crossAx val="114594176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121472512"/>
+        <c:axId val="114594176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121466240"/>
+        <c:crossAx val="114587904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3831,11 +3831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121530240"/>
-        <c:axId val="121544704"/>
+        <c:axId val="114713344"/>
+        <c:axId val="114715264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121530240"/>
+        <c:axId val="114713344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3863,7 +3863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121544704"/>
+        <c:crossAx val="114715264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3871,7 +3871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121544704"/>
+        <c:axId val="114715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +3900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121530240"/>
+        <c:crossAx val="114713344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4216,11 +4216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94836608"/>
-        <c:axId val="94842880"/>
+        <c:axId val="114758400"/>
+        <c:axId val="114760320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94836608"/>
+        <c:axId val="114758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,7 +4249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94842880"/>
+        <c:crossAx val="114760320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4257,7 +4257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94842880"/>
+        <c:axId val="114760320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,7 +4287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94836608"/>
+        <c:crossAx val="114758400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4604,11 +4604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94857088"/>
-        <c:axId val="94875648"/>
+        <c:axId val="114791168"/>
+        <c:axId val="114793088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94857088"/>
+        <c:axId val="114791168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +4637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94875648"/>
+        <c:crossAx val="114793088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4645,7 +4645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94875648"/>
+        <c:axId val="114793088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,7 +4675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94857088"/>
+        <c:crossAx val="114791168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4992,11 +4992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94979968"/>
-        <c:axId val="94982144"/>
+        <c:axId val="114840320"/>
+        <c:axId val="114842240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94979968"/>
+        <c:axId val="114840320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94982144"/>
+        <c:crossAx val="114842240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5033,7 +5033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94982144"/>
+        <c:axId val="114842240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +5063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94979968"/>
+        <c:crossAx val="114840320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5872,11 +5872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95029888"/>
-        <c:axId val="95044352"/>
+        <c:axId val="2721280"/>
+        <c:axId val="2723200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95029888"/>
+        <c:axId val="2721280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,7 +5905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95044352"/>
+        <c:crossAx val="2723200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5913,7 +5913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95044352"/>
+        <c:axId val="2723200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5943,7 +5943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95029888"/>
+        <c:crossAx val="2721280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6997,11 +6997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="57838208"/>
-        <c:axId val="57864960"/>
+        <c:axId val="98280960"/>
+        <c:axId val="98282880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57838208"/>
+        <c:axId val="98280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7029,7 +7029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57864960"/>
+        <c:crossAx val="98282880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7037,7 +7037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57864960"/>
+        <c:axId val="98282880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,7 +7066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57838208"/>
+        <c:crossAx val="98280960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8024,11 +8024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95102848"/>
-        <c:axId val="95121408"/>
+        <c:axId val="115172096"/>
+        <c:axId val="115174016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95102848"/>
+        <c:axId val="115172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8050,14 +8050,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95121408"/>
+        <c:crossAx val="115174016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8065,7 +8064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95121408"/>
+        <c:axId val="115174016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8088,21 +8087,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95102848"/>
+        <c:crossAx val="115172096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9062,11 +9059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95760768"/>
-        <c:axId val="95762688"/>
+        <c:axId val="115305472"/>
+        <c:axId val="115315840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95760768"/>
+        <c:axId val="115305472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,14 +9085,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95762688"/>
+        <c:crossAx val="115315840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9103,7 +9099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95762688"/>
+        <c:axId val="115315840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9126,21 +9122,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95760768"/>
+        <c:crossAx val="115305472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10113,11 +10107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95808128"/>
-        <c:axId val="95810304"/>
+        <c:axId val="115619328"/>
+        <c:axId val="115621248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95808128"/>
+        <c:axId val="115619328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10145,7 +10139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95810304"/>
+        <c:crossAx val="115621248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10153,7 +10147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95810304"/>
+        <c:axId val="115621248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10182,7 +10176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95808128"/>
+        <c:crossAx val="115619328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10512,11 +10506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95849088"/>
-        <c:axId val="95859456"/>
+        <c:axId val="115676672"/>
+        <c:axId val="115678592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95849088"/>
+        <c:axId val="115676672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10544,7 +10538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95859456"/>
+        <c:crossAx val="115678592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10552,7 +10546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95859456"/>
+        <c:axId val="115678592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10581,7 +10575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95849088"/>
+        <c:crossAx val="115676672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10901,11 +10895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95893760"/>
-        <c:axId val="95895936"/>
+        <c:axId val="115713152"/>
+        <c:axId val="115715072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95893760"/>
+        <c:axId val="115713152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10933,7 +10927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95895936"/>
+        <c:crossAx val="115715072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10941,7 +10935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95895936"/>
+        <c:axId val="115715072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10970,7 +10964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95893760"/>
+        <c:crossAx val="115713152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11290,11 +11284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95918336"/>
-        <c:axId val="95924608"/>
+        <c:axId val="115758208"/>
+        <c:axId val="115760128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95918336"/>
+        <c:axId val="115758208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11322,7 +11316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95924608"/>
+        <c:crossAx val="115760128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11330,7 +11324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95924608"/>
+        <c:axId val="115760128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11359,7 +11353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95918336"/>
+        <c:crossAx val="115758208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11679,11 +11673,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96033024"/>
-        <c:axId val="96035200"/>
+        <c:axId val="115803264"/>
+        <c:axId val="115805184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96033024"/>
+        <c:axId val="115803264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11711,7 +11705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96035200"/>
+        <c:crossAx val="115805184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11719,7 +11713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96035200"/>
+        <c:axId val="115805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11748,7 +11742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96033024"/>
+        <c:crossAx val="115803264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11876,11 +11870,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>Sheet1!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11920,33 +11914,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:f>Sheet1!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3793894</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>460175</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>453366</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>428926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>427946</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>422565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>417965</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>415047</c:v>
+                  <c:v>3012365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5353056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5141334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5485861</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2894293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5512458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5640178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3035088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11958,11 +11952,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>Sheet1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CAS lock No Delay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12002,33 +11996,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4352073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6294285</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3618811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4602640</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8647630</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4443804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3129801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1438792</c:v>
+                  <c:v>3179255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2980149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3035840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4401718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1769621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>631254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>509278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12040,11 +12034,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$51</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker 128</c:v>
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) Ticket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12084,33 +12078,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:f>Sheet1!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2903255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2302230</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1643140</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1661205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1646202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1609534</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1659569</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013186</c:v>
+                  <c:v>4236020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12122,11 +12116,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$52</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12166,33 +12160,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5705844</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8696890</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11042185</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13860795</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13008780</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13963041</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13891453</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13866634</c:v>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3220647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6282478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3084147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3085150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3207543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3211745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3237739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3240345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12202,6 +12196,2712 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3444520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2049529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>454493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3143497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5604121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>455184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155651</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3792954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5603242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3806464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3786053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3813084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3790073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3810782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7128149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2676478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3752736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>511183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>271999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2819705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3487415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3259644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3073718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1408304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>711495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>489475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>563181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3132238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3489689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>675383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>697534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>634013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Core Intel Xeon CPU E7-4820 @ 2.00GHz (A) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3579112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1462152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5736383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>424233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62560</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3793894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>453366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>427946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>422565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>417965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>415047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5502640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9927199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9983183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9994711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10035484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10024207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5525711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5439038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CAS lock No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5536197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6545704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7006422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5922432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5772496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5829906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5784196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5985418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6805271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5972108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5922924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5953930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5966262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5931206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11164784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5956411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11154338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6013978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5851822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3271091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3319699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3290193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3305497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3278293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2742617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5915950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6433567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4219978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3296432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4240517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3466253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3571424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4207823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5848483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5795616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5785975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5774371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5801219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5803368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10929221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10966889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5486175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6246104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4284009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3589900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4223098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3258029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4251829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3410516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5375714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6390613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7010348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5820365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5883076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6596370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5750770</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6048380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6808039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7270495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6101233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5947679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6086603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5479746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4995937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5884745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Core Intel Core i5-2500K CPU @ 3.30GHz (B) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5985716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5925959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2893820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2477593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3046501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3139456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3113084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3135815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C Cube ) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4352073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6294285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3618811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4602640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8647630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4443804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3129801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1438792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3964407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5780984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5825543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5135403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3767343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3928112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7240675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4013349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CAS No Delay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3922638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10697517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7345850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4006159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3704201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5702905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5340291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4589334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4302199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5854583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7965251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3988801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7996799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4157777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4178791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4194019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4184703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4636434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11413260</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3878356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7409886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8446833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3978943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2969784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4051939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6019355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2537039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1179724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8098814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2953880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4367758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>811338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4112721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5713009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4081702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4091144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4088398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7706883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4158427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4105712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4074392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9919477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2375015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7449682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7511074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9680857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6983451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1697289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) CASLOCK_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3961615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5207016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5938412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9670902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5547243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3767385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3725236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3853281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$45:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4624046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9805122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5005412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1295184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1486150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Core Intel CPU @ 2.27 GHz (C ) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4164400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5553091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1489610</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1776104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1917196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1041018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1181168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2051856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2903255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2302230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1643140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1661205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1646202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1609534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1659569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5705844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8696890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11042185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13860795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13008780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13963041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13891453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13866634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$53</c:f>
@@ -12291,11 +14991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124347904"/>
-        <c:axId val="124349440"/>
+        <c:axId val="115842432"/>
+        <c:axId val="115852416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124347904"/>
+        <c:axId val="115842432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12305,7 +15005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124349440"/>
+        <c:crossAx val="115852416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12313,7 +15013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124349440"/>
+        <c:axId val="115852416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12324,7 +15024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124347904"/>
+        <c:crossAx val="115842432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13366,11 +16066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58001280"/>
-        <c:axId val="58032128"/>
+        <c:axId val="109097728"/>
+        <c:axId val="109099648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58001280"/>
+        <c:axId val="109097728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13399,7 +16099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58032128"/>
+        <c:crossAx val="109099648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13407,7 +16107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58032128"/>
+        <c:axId val="109099648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13437,7 +16137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58001280"/>
+        <c:crossAx val="109097728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13672,11 +16372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58394496"/>
-        <c:axId val="58396672"/>
+        <c:axId val="109196032"/>
+        <c:axId val="109197952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58394496"/>
+        <c:axId val="109196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13705,7 +16405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58396672"/>
+        <c:crossAx val="109197952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13713,7 +16413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58396672"/>
+        <c:axId val="109197952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13743,7 +16443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58394496"/>
+        <c:crossAx val="109196032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13974,11 +16674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58427264"/>
-        <c:axId val="58441728"/>
+        <c:axId val="109232896"/>
+        <c:axId val="109234816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58427264"/>
+        <c:axId val="109232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14007,7 +16707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58441728"/>
+        <c:crossAx val="109234816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14015,7 +16715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58441728"/>
+        <c:axId val="109234816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14045,7 +16745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58427264"/>
+        <c:crossAx val="109232896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14275,11 +16975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58746752"/>
-        <c:axId val="58769408"/>
+        <c:axId val="109142784"/>
+        <c:axId val="109144704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58746752"/>
+        <c:axId val="109142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14307,7 +17007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58769408"/>
+        <c:crossAx val="109144704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14315,7 +17015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58769408"/>
+        <c:axId val="109144704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14344,7 +17044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58746752"/>
+        <c:crossAx val="109142784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14573,11 +17273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59770752"/>
-        <c:axId val="59785216"/>
+        <c:axId val="109314816"/>
+        <c:axId val="109316736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59770752"/>
+        <c:axId val="109314816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14605,7 +17305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59785216"/>
+        <c:crossAx val="109316736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14613,7 +17313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59785216"/>
+        <c:axId val="109316736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14642,7 +17342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59770752"/>
+        <c:crossAx val="109314816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14871,11 +17571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59811712"/>
-        <c:axId val="59817984"/>
+        <c:axId val="109351680"/>
+        <c:axId val="109353600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59811712"/>
+        <c:axId val="109351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14903,7 +17603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59817984"/>
+        <c:crossAx val="109353600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14911,7 +17611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59817984"/>
+        <c:axId val="109353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14940,7 +17640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59811712"/>
+        <c:crossAx val="109351680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15127,11 +17827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59840384"/>
-        <c:axId val="59846656"/>
+        <c:axId val="109380352"/>
+        <c:axId val="109382272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59840384"/>
+        <c:axId val="109380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15159,7 +17859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59846656"/>
+        <c:crossAx val="109382272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15167,7 +17867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59846656"/>
+        <c:axId val="109382272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15196,7 +17896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59840384"/>
+        <c:crossAx val="109380352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16047,16 +18747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16367,7 +19067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
